--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangbc\PycharmProjects\vslord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D396AF07-0DFA-4320-B598-B6A037599A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2B5FD-EFA0-45FD-B9C3-361D6E5EE1E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780" xr2:uid="{732FED5D-CA1E-4BB0-907B-BDF26D936B6C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">login </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +162,66 @@
   </si>
   <si>
     <t xml:space="preserve">ok/error </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_cards_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok/error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error-invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">say </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC2A5F9-CA06-4214-A7CE-1F54D9EF78DA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,97 +620,98 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -668,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,16 +733,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -696,10 +750,10 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -707,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -721,16 +775,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -738,16 +792,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -758,12 +812,129 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangbc\PycharmProjects\vslord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2B5FD-EFA0-45FD-B9C3-361D6E5EE1E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3A6C80-537E-41E1-86FE-9F8D6C9E3D94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780" xr2:uid="{732FED5D-CA1E-4BB0-907B-BDF26D936B6C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780" xr2:uid="{732FED5D-CA1E-4BB0-907B-BDF26D936B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,7 +221,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>player</t>
+    <t>pass_round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC2A5F9-CA06-4214-A7CE-1F54D9EF78DA}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -819,9 +819,6 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" t="s">
         <v>37</v>
       </c>
@@ -839,9 +836,6 @@
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
@@ -856,9 +850,6 @@
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
@@ -876,9 +867,6 @@
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
@@ -902,32 +890,43 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>45</v>
       </c>
     </row>
